--- a/results/mp/logistic/corona/confidence/168/masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,67 +52,85 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>fuck</t>
@@ -121,19 +139,10 @@
     <t>shit</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -142,7 +151,7 @@
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -154,220 +163,217 @@
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,16 +821,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,16 +871,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,16 +921,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -965,16 +971,16 @@
         <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1094,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.76</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1186,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.8537859007832899</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1286,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7027027027027027</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K14">
         <v>0.7931034482758621</v>
@@ -1394,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.7926829268292683</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,38 +1450,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16">
-        <v>0.7924528301886793</v>
-      </c>
-      <c r="L16">
-        <v>84</v>
-      </c>
-      <c r="M16">
-        <v>84</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.576271186440678</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.7890625</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5490196078431373</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7625</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5234899328859061</v>
+        <v>0.5329457364341085</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.7746478873239436</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5079365079365079</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5077519379844961</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C22">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4838709677419355</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.717948717948718</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4666666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1962,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1986,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1994,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4193548387096774</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2036,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,13 +2050,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4102564102564102</v>
+        <v>0.40625</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2062,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28">
-        <v>0.6976744186046512</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2086,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2094,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4102564102564102</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2112,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>0.6944444444444444</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2144,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3888888888888889</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C30">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2162,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30">
         <v>0.6842105263157895</v>
@@ -2194,13 +2200,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3636363636363636</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2212,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31">
-        <v>0.65</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2236,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2244,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3636363636363636</v>
+        <v>0.375</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2262,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32">
-        <v>0.6411764705882353</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2286,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2294,7 +2300,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3571428571428572</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -2312,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.675</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2344,13 +2350,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3513513513513514</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2362,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2386,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2394,13 +2400,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2619047619047619</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C35">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2412,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35">
-        <v>0.62</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2436,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2444,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2597402597402597</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2462,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36">
         <v>0.6</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2494,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2555555555555555</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2512,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2536,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2544,13 +2550,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.160857908847185</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2562,19 +2568,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38">
-        <v>0.5774058577405857</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L38">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>101</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2594,13 +2600,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07333333333333333</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2612,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2636,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2644,37 +2650,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01305263157894737</v>
+        <v>0.1625</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>2344</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40">
-        <v>0.574468085106383</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2686,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2694,37 +2700,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01096067053513862</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E41">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3068</v>
+        <v>324</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2744,37 +2750,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00841908325537886</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2120</v>
+        <v>280</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2786,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2794,37 +2800,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007815713698066639</v>
+        <v>0.01138279932546374</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="F43">
-        <v>0.5800000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2412</v>
+        <v>2345</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>0.5692307692307692</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2836,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2844,37 +2850,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.007391304347826087</v>
+        <v>0.009354536950420954</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F44">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2283</v>
+        <v>2118</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K44">
-        <v>0.5661016949152542</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2886,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2894,28 +2900,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006022925976296872</v>
+        <v>0.009023525620367387</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="F45">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>5116</v>
+        <v>3075</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45">
         <v>0.5652173913043478</v>
@@ -2944,37 +2950,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005219835374422807</v>
+        <v>0.006084311169056932</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E46">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F46">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>4955</v>
+        <v>2287</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K46">
-        <v>0.5652173913043478</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2986,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2994,37 +3000,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00440324449594438</v>
+        <v>0.006031363088057901</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E47">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F47">
-        <v>0.5900000000000001</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>4296</v>
+        <v>4944</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K47">
-        <v>0.5168539325842697</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3036,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3044,323 +3050,347 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004399748585795098</v>
+        <v>0.005838847800700661</v>
       </c>
       <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>0.47</v>
+      </c>
+      <c r="F48">
+        <v>0.53</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>5108</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L48">
+        <v>44</v>
+      </c>
+      <c r="M48">
+        <v>44</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.005568445475638051</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>0.43</v>
+      </c>
+      <c r="F49">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>4286</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="J50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="J51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L52">
+        <v>27</v>
+      </c>
+      <c r="M52">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K53">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K54">
+        <v>0.3125</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L55">
+        <v>18</v>
+      </c>
+      <c r="M55">
+        <v>18</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="L56">
         <v>14</v>
       </c>
-      <c r="D48">
-        <v>33</v>
-      </c>
-      <c r="E48">
-        <v>0.58</v>
-      </c>
-      <c r="F48">
-        <v>0.42</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>3168</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>0.5</v>
-      </c>
-      <c r="L48">
-        <v>35</v>
-      </c>
-      <c r="M48">
-        <v>35</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>13</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L57">
         <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K50">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="L50">
-        <v>14</v>
-      </c>
-      <c r="M50">
-        <v>14</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L51">
-        <v>20</v>
-      </c>
-      <c r="M51">
-        <v>20</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="L52">
-        <v>21</v>
-      </c>
-      <c r="M52">
-        <v>21</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K53">
-        <v>0.3972602739726027</v>
-      </c>
-      <c r="L53">
-        <v>29</v>
-      </c>
-      <c r="M53">
-        <v>29</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="L54">
-        <v>16</v>
-      </c>
-      <c r="M54">
-        <v>16</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L55">
-        <v>23</v>
-      </c>
-      <c r="M55">
-        <v>23</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56">
-        <v>0.28125</v>
-      </c>
-      <c r="L56">
-        <v>18</v>
-      </c>
-      <c r="M56">
-        <v>18</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K57">
-        <v>0.2711864406779661</v>
-      </c>
-      <c r="L57">
-        <v>16</v>
       </c>
       <c r="M57">
         <v>16</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>110</v>
       </c>
-      <c r="K58">
-        <v>0.1214953271028037</v>
-      </c>
-      <c r="L58">
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K59">
+        <v>0.07027027027027027</v>
+      </c>
+      <c r="L59">
         <v>13</v>
       </c>
-      <c r="M58">
-        <v>15</v>
-      </c>
-      <c r="N58">
-        <v>0.87</v>
-      </c>
-      <c r="O58">
-        <v>0.13</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59">
-        <v>0.1209677419354839</v>
-      </c>
-      <c r="L59">
-        <v>15</v>
-      </c>
       <c r="M59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3372,293 +3402,267 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K60">
-        <v>0.07567567567567568</v>
+        <v>0.02085070892410342</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K61">
-        <v>0.03110047846889952</v>
+        <v>0.01330203442879499</v>
       </c>
       <c r="L61">
+        <v>17</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>0.61</v>
+      </c>
+      <c r="O61">
+        <v>0.39</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K62">
+        <v>0.008191556395715185</v>
+      </c>
+      <c r="L62">
         <v>13</v>
       </c>
-      <c r="M61">
-        <v>13</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K62">
-        <v>0.03107861060329068</v>
-      </c>
-      <c r="L62">
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>0.65</v>
+      </c>
+      <c r="O62">
+        <v>0.35</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63">
+        <v>0.007876969242310577</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>28</v>
+      </c>
+      <c r="N63">
+        <v>0.75</v>
+      </c>
+      <c r="O63">
+        <v>0.25</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K64">
+        <v>0.007109995817649519</v>
+      </c>
+      <c r="L64">
         <v>17</v>
       </c>
-      <c r="M62">
-        <v>17</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K63">
-        <v>0.02926421404682274</v>
-      </c>
-      <c r="L63">
-        <v>35</v>
-      </c>
-      <c r="M63">
-        <v>39</v>
-      </c>
-      <c r="N63">
-        <v>0.9</v>
-      </c>
-      <c r="O63">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K64">
-        <v>0.009009009009009009</v>
-      </c>
-      <c r="L64">
-        <v>24</v>
-      </c>
       <c r="M64">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N64">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="O64">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>2640</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K65">
-        <v>0.007525083612040134</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N65">
-        <v>0.9</v>
+        <v>0.61</v>
       </c>
       <c r="O65">
-        <v>0.09999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2374</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="K66">
-        <v>0.005961719485409476</v>
+        <v>0.00532748354747728</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N66">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="O66">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3168</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>0.005770816158285243</v>
+        <v>0.005258033106134372</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="N67">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="O67">
-        <v>0.5800000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2412</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>0.003506038176860148</v>
+        <v>0.004430124848973017</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N68">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="O68">
-        <v>0.63</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>5116</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K69">
-        <v>0.003018108651911469</v>
+        <v>0.004182156133828996</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N69">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="O69">
-        <v>0.63</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4955</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70">
-        <v>0.003016941285681132</v>
-      </c>
-      <c r="L70">
-        <v>13</v>
-      </c>
-      <c r="M70">
-        <v>32</v>
-      </c>
-      <c r="N70">
-        <v>0.41</v>
-      </c>
-      <c r="O70">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>4296</v>
+        <v>4286</v>
       </c>
     </row>
   </sheetData>
